--- a/Data/故宫建筑标记.xlsx
+++ b/Data/故宫建筑标记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>描述</t>
   </si>
   <si>
     <t>武英门卫生间</t>
@@ -1426,19 +1429,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="18.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="12.1818181818182" customWidth="1"/>
+    <col min="2" max="3" width="18.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="12.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1448,830 +1451,1058 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>21</v>
+      <c r="B17">
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
+      <c r="B18">
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
+      <c r="B19">
+        <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
+      <c r="B21">
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
+      <c r="B24">
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
+      <c r="B25">
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>34</v>
+      <c r="B26">
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
+      <c r="B27">
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
+      <c r="B28">
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
+      <c r="B29">
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>38</v>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>39</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>40</v>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>41</v>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>42</v>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>43</v>
+      <c r="B35">
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>44</v>
+      <c r="B36">
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>45</v>
+      <c r="B37">
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>46</v>
+      <c r="B38">
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>47</v>
+      <c r="B39">
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>48</v>
+      <c r="B40">
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>49</v>
+      <c r="B41">
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>50</v>
+      <c r="B42">
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>51</v>
+      <c r="B43">
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>52</v>
+      <c r="B44">
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>53</v>
+      <c r="B45">
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>54</v>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>56</v>
+      <c r="B48">
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>57</v>
+      <c r="B49">
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>58</v>
+      <c r="B50">
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>59</v>
+      <c r="B51">
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
+      <c r="B52">
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>61</v>
+      <c r="B53">
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>62</v>
+      <c r="B54">
+        <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>21</v>
+      <c r="B55">
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>63</v>
+      <c r="B56">
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>64</v>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>65</v>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>66</v>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>67</v>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>68</v>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>69</v>
+      <c r="B62">
+        <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>70</v>
+      <c r="B63">
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>71</v>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>72</v>
+      <c r="B65">
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>73</v>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>74</v>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>75</v>
+      <c r="B68">
+        <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>76</v>
+      <c r="B69">
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>77</v>
+      <c r="B70">
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>78</v>
+      <c r="B71">
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>79</v>
+      <c r="B72">
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>80</v>
+      <c r="B73">
+        <v>1</v>
       </c>
       <c r="C73" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
         <v>82</v>
       </c>
-      <c r="C74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>83</v>
+      <c r="B75">
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>84</v>
+      <c r="B76">
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
